--- a/lenovo_noresults.xlsx
+++ b/lenovo_noresults.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,42 +401,448 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo chromebook ideapad 3 cb  </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 5  </t>
+          <t xml:space="preserve">lenovo chromebook ideapad flex 3 cb  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo legion 7  </t>
+          <t xml:space="preserve">lenovo g50  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 13s  </t>
+          <t xml:space="preserve">lenovo ideapad 110  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14 g2 itl  </t>
+          <t xml:space="preserve">lenovo ideapad 120s  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">lenovo thinkbook 14 iil  </t>
+          <t xml:space="preserve">lenovo ideapad 320  </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 320s  </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 330s  </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 510s  </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 530s-14arr  </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad 5i  </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad creator 5  </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad e31  </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad l340  </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad s130  </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad s340  </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad z50-70  </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo ideapad z51-70  </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e14 gen 2  </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e440  </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad e490  </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge  </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e130  </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad edge e531  </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l412  </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l430  </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l520  </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l530  </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad l560  </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad p51s  </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t15i  </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t480  </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t510  </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t520  </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t530  </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t530i  </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t560  </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad t570  </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad w530  </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon g2  </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon g3  </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon g4  </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x1 carbon g5  </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x120e  </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x121e  </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x131e  </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad x280  </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad yoga 12  </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad yoga 370  </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo thinkpad yoga s1  </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14 g2 alc  </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14 g2 itl  </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14 iil  </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v14-ada  </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v145-15ast  </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 g2 alc  </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v15 intel core i3-1115g4/8gb/512gb ssd/15.6"  </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v30a-22iil  </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo v330  </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo x220  </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 7 14itl5  </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga 720-15ikb  </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga c930-13ikb  </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lenovo yoga slim 7 14itl05  </t>
         </is>
       </c>
     </row>
